--- a/docs/StructureDefinition-NonVAMedicationStatement.xlsx
+++ b/docs/StructureDefinition-NonVAMedicationStatement.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="517">
   <si>
     <t>Path</t>
   </si>
@@ -350,6 +350,49 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>nonVAMedicationDisclaimer</t>
+  </si>
+  <si>
+    <t>DISCLAIMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/nonVAMedicationDisclaimer}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This is the multiple for the Non-VA Med Disclaimer (Statement/Explanation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @DISCLAIMER 55.05-10</t>
+  </si>
+  <si>
+    <t>medicationstatement-orderLocation</t>
+  </si>
+  <si>
+    <t>CLINIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationstatement-orderLocation}
+</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @CLINIC 55.05-13</t>
+  </si>
+  <si>
     <t>medicationstatement-recorder</t>
   </si>
   <si>
@@ -363,50 +406,7 @@
     <t>This is the person responsible for documenting the Non-VA Med order.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PHARMACY PATIENT FILE @DOCUMENTED BY 55.05-12</t>
-  </si>
-  <si>
-    <t>medicationstatement-orderLocation</t>
-  </si>
-  <si>
-    <t>CLINIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationstatement-orderLocation}
-</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @CLINIC 55.05-13</t>
-  </si>
-  <si>
-    <t>nonVAMedicationDisclaimer</t>
-  </si>
-  <si>
-    <t>DISCLAIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/nonVAMedicationDisclaimer}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>This is the multiple for the Non-VA Med Disclaimer (Statement/Explanation)</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @DISCLAIMER 55.05-10</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -882,10 +882,10 @@
     <t>MedicationStatement.effective[x].end</t>
   </si>
   <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means that the period is ongoing. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+    <t>DISCONTINUED DATE</t>
+  </si>
+  <si>
+    <t>This is the date the patient stopped taking the Non-VA Medication.</t>
   </si>
   <si>
     <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has a end value of 2012-02-03.</t>
@@ -895,6 +895,9 @@
   </si>
   <si>
     <t>Period.end</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @DISCONTINUED DATE 55.05-6</t>
   </si>
   <si>
     <t>./high</t>
@@ -1782,7 +1785,7 @@
     <col min="1" max="1" width="53.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="19.84765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="20.72265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
@@ -2881,10 +2884,10 @@
         <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2944,13 +2947,13 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>41</v>
@@ -2970,13 +2973,13 @@
         <v>96</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>42</v>
@@ -2994,13 +2997,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3060,13 +3063,13 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>41</v>
@@ -3086,13 +3089,13 @@
         <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>42</v>
@@ -3110,10 +3113,10 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>119</v>
@@ -3176,10 +3179,10 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>120</v>
@@ -5705,7 +5708,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>273</v>
       </c>
@@ -5713,7 +5716,9 @@
       <c r="C35" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5721,7 +5726,7 @@
         <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -5806,31 +5811,31 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E36" t="s" s="2">
         <v>42</v>
@@ -5851,10 +5856,10 @@
         <v>265</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5905,7 +5910,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5920,16 +5925,16 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5937,7 +5942,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5960,13 +5965,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6017,7 +6022,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6038,10 +6043,10 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -6049,14 +6054,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E38" t="s" s="2">
         <v>52</v>
@@ -6074,13 +6079,13 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6131,7 +6136,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>52</v>
@@ -6146,24 +6151,24 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6186,16 +6191,16 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6245,7 +6250,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6266,7 +6271,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -6277,7 +6282,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6303,13 +6308,13 @@
         <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6338,10 +6343,10 @@
         <v>150</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -6359,7 +6364,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>52</v>
@@ -6377,10 +6382,10 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6391,7 +6396,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6417,10 +6422,10 @@
         <v>156</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6450,10 +6455,10 @@
         <v>241</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6471,7 +6476,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6480,7 +6485,7 @@
         <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
@@ -6492,7 +6497,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6503,7 +6508,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6529,13 +6534,13 @@
         <v>156</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6564,10 +6569,10 @@
         <v>241</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
@@ -6585,7 +6590,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6603,13 +6608,13 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6617,7 +6622,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6640,16 +6645,16 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6699,7 +6704,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6717,13 +6722,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6731,7 +6736,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6754,13 +6759,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6811,7 +6816,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6829,10 +6834,10 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6843,7 +6848,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6866,16 +6871,16 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6925,7 +6930,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6946,7 +6951,7 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -6957,7 +6962,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7069,7 +7074,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7183,7 +7188,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7206,17 +7211,17 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -7265,7 +7270,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7286,7 +7291,7 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7297,14 +7302,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>42</v>
@@ -7325,14 +7330,14 @@
         <v>135</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7381,7 +7386,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7396,13 +7401,13 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7413,7 +7418,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7439,14 +7444,14 @@
         <v>156</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7474,10 +7479,10 @@
         <v>241</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -7495,7 +7500,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7516,7 +7521,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7527,7 +7532,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7553,10 +7558,10 @@
         <v>135</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7607,7 +7612,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7628,7 +7633,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7639,7 +7644,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7662,19 +7667,19 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7723,7 +7728,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7755,7 +7760,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7778,16 +7783,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7816,10 +7821,10 @@
         <v>241</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7837,7 +7842,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7858,7 +7863,7 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7869,7 +7874,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7895,16 +7900,16 @@
         <v>156</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7932,10 +7937,10 @@
         <v>241</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
@@ -7953,7 +7958,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7974,7 +7979,7 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7985,7 +7990,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8011,14 +8016,14 @@
         <v>156</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -8046,10 +8051,10 @@
         <v>241</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -8067,7 +8072,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8088,7 +8093,7 @@
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8099,7 +8104,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8211,7 +8216,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8325,7 +8330,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8348,19 +8353,19 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8409,7 +8414,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8430,18 +8435,18 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8553,7 +8558,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8667,7 +8672,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8693,16 +8698,16 @@
         <v>65</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8751,7 +8756,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8772,18 +8777,18 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8809,13 +8814,13 @@
         <v>135</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8865,7 +8870,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8886,25 +8891,25 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E63" t="s" s="2">
         <v>42</v>
@@ -8925,14 +8930,14 @@
         <v>71</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -8981,7 +8986,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8996,24 +9001,24 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9039,14 +9044,14 @@
         <v>135</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -9095,7 +9100,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9116,18 +9121,18 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9150,19 +9155,19 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9211,7 +9216,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9232,18 +9237,18 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9269,16 +9274,16 @@
         <v>135</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9327,7 +9332,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9348,18 +9353,18 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9385,16 +9390,16 @@
         <v>156</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>41</v>
@@ -9422,10 +9427,10 @@
         <v>241</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
@@ -9443,7 +9448,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9464,7 +9469,7 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9475,7 +9480,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9498,19 +9503,19 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9559,7 +9564,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9580,7 +9585,7 @@
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9591,7 +9596,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9614,19 +9619,19 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>41</v>
@@ -9675,7 +9680,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9696,7 +9701,7 @@
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9707,7 +9712,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9730,19 +9735,19 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9791,7 +9796,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9812,7 +9817,7 @@
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9823,7 +9828,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9846,17 +9851,17 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9905,7 +9910,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9926,7 +9931,7 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9937,7 +9942,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9960,19 +9965,19 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -10021,7 +10026,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10042,7 +10047,7 @@
         <v>41</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-NonVAMedicationStatement.xlsx
+++ b/docs/StructureDefinition-NonVAMedicationStatement.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="532">
   <si>
     <t>Path</t>
   </si>
@@ -817,6 +817,191 @@
     <t>PHARMACY PATIENT FILE @DISPENSE DRUG 55.05-1</t>
   </si>
   <si>
+    <t>MedicationStatement.medication[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://va.gov/terminology/vistaDefinedTerms/55.05-.01</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.code</t>
+  </si>
+  <si>
+    <t>ORDERABLE ITEM</t>
+  </si>
+  <si>
+    <t>This is the orderable item that represents the Non-VA Med being taken by  the patient.</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @ORDERABLE ITEM 55.05-.01</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>MedicationStatement.effective[x]</t>
   </si>
   <si>
@@ -1312,31 +1497,6 @@
     <t>MedicationStatement.dosage.route.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>MedicationStatement.dosage.route.coding.id</t>
   </si>
   <si>
@@ -1346,48 +1506,9 @@
     <t>MedicationStatement.dosage.route.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
     <t>MedicationStatement.dosage.route.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
     <t>MedicationStatement.dosage.route.coding.code</t>
   </si>
   <si>
@@ -1400,92 +1521,16 @@
     <t>This is the route of the Non-VA Medication being taken by the patient.</t>
   </si>
   <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
     <t>PHARMACY PATIENT FILE @MEDICATION ROUTE 55.05-3</t>
   </si>
   <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
     <t>MedicationStatement.dosage.route.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
     <t>MedicationStatement.dosage.route.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
     <t>MedicationStatement.dosage.route.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationStatement.dosage.method</t>
@@ -1773,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5160,20 +5205,18 @@
         <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -5210,17 +5253,19 @@
         <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5238,13 +5283,13 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5252,20 +5297,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -5274,19 +5317,19 @@
         <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5324,25 +5367,25 @@
         <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -5354,13 +5397,13 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5368,7 +5411,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5379,7 +5422,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -5388,19 +5431,23 @@
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5448,13 +5495,13 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -5469,29 +5516,29 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>41</v>
@@ -5503,17 +5550,15 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5550,25 +5595,25 @@
         <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -5592,43 +5637,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>265</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5666,59 +5709,57 @@
         <v>41</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>272</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D35" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5735,108 +5776,106 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L35" t="s" s="2">
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D36" t="s" s="2">
-        <v>283</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5844,7 +5883,7 @@
         <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5853,15 +5892,17 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5910,45 +5951,47 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5956,25 +5999,27 @@
         <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
@@ -6022,55 +6067,53 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D38" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -6079,16 +6122,18 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -6139,7 +6184,7 @@
         <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>52</v>
@@ -6151,24 +6196,24 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6179,7 +6224,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -6188,21 +6233,23 @@
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
       </c>
@@ -6256,7 +6303,7 @@
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
@@ -6271,18 +6318,18 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6290,7 +6337,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>52</v>
@@ -6299,24 +6346,26 @@
         <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6340,63 +6389,63 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6407,7 +6456,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
@@ -6416,18 +6465,20 @@
         <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6452,55 +6503,53 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AB41" s="2"/>
+      <c r="AC41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6508,9 +6557,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6519,7 +6570,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
@@ -6528,19 +6579,19 @@
         <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6566,13 +6617,13 @@
         <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
@@ -6590,13 +6641,13 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
@@ -6608,13 +6659,13 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6622,7 +6673,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6633,7 +6684,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6645,17 +6696,15 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6704,13 +6753,13 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
@@ -6722,13 +6771,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6736,11 +6785,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6759,15 +6808,17 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>341</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>342</v>
+        <v>141</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6804,19 +6855,19 @@
         <v>41</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>340</v>
+        <v>144</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6834,10 +6885,10 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>139</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6846,41 +6897,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6930,45 +6983,47 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>41</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6976,29 +7031,33 @@
         <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>41</v>
       </c>
@@ -7042,7 +7101,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>138</v>
+        <v>339</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7051,63 +7110,63 @@
         <v>52</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>139</v>
+        <v>341</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="E47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -7144,25 +7203,25 @@
         <v>41</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>41</v>
@@ -7171,16 +7230,16 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>139</v>
+        <v>347</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7188,7 +7247,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7208,21 +7267,19 @@
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
       </c>
@@ -7270,7 +7327,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7291,10 +7348,10 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7302,17 +7359,17 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>52</v>
@@ -7327,18 +7384,16 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>135</v>
+        <v>357</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7386,10 +7441,10 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>52</v>
@@ -7401,24 +7456,24 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7438,21 +7493,21 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>156</v>
+        <v>365</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
       </c>
@@ -7476,13 +7531,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -7500,7 +7555,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7521,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7532,7 +7587,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7540,7 +7595,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>52</v>
@@ -7549,21 +7604,23 @@
         <v>41</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7588,13 +7645,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7612,28 +7669,28 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7655,7 +7712,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
@@ -7664,23 +7721,19 @@
         <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7704,13 +7757,13 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7728,28 +7781,28 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7771,7 +7824,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>41</v>
@@ -7780,19 +7833,19 @@
         <v>41</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7821,52 +7874,52 @@
         <v>241</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7885,7 +7938,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7894,23 +7947,21 @@
         <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>156</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>398</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
       </c>
@@ -7934,55 +7985,55 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="AM54" t="s" s="2">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7990,7 +8041,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8001,7 +8052,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -8010,21 +8061,19 @@
         <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>156</v>
+        <v>402</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
       </c>
@@ -8048,13 +8097,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>407</v>
+        <v>41</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -8072,13 +8121,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -8090,10 +8139,10 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8104,7 +8153,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8115,7 +8164,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -8127,15 +8176,17 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>135</v>
+        <v>408</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>136</v>
+        <v>409</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -8184,13 +8235,13 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>138</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -8205,7 +8256,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>139</v>
+        <v>412</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8216,18 +8267,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -8239,17 +8290,15 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
@@ -8286,25 +8335,25 @@
         <v>41</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
@@ -8330,11 +8379,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8350,23 +8399,21 @@
         <v>41</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>414</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>415</v>
+        <v>141</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>416</v>
+        <v>142</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8402,19 +8449,19 @@
         <v>41</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>419</v>
+        <v>144</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8435,18 +8482,18 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>420</v>
+        <v>139</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>421</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8466,19 +8513,21 @@
         <v>41</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>135</v>
+        <v>416</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>136</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>137</v>
+        <v>418</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
@@ -8526,7 +8575,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>138</v>
+        <v>420</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8547,7 +8596,7 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>139</v>
+        <v>421</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
@@ -8556,43 +8605,45 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>141</v>
+        <v>423</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8628,25 +8679,25 @@
         <v>41</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
@@ -8655,13 +8706,13 @@
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>139</v>
+        <v>421</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8672,7 +8723,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8683,7 +8734,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
@@ -8695,19 +8746,17 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8732,13 +8781,13 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>41</v>
+        <v>432</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>41</v>
+        <v>433</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
@@ -8756,13 +8805,13 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
@@ -8777,18 +8826,18 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>431</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8814,14 +8863,12 @@
         <v>135</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -8870,7 +8917,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8891,16 +8938,16 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>438</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>439</v>
       </c>
@@ -8908,9 +8955,7 @@
       <c r="C63" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D63" t="s" s="2">
-        <v>440</v>
-      </c>
+      <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8918,7 +8963,7 @@
         <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -8927,7 +8972,7 @@
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>71</v>
+        <v>440</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>441</v>
@@ -8935,9 +8980,11 @@
       <c r="L63" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M63" s="2"/>
+      <c r="M63" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -8986,7 +9033,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9001,24 +9048,24 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>445</v>
+        <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>446</v>
+        <v>319</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>447</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9041,18 +9088,18 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>135</v>
+        <v>447</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>41</v>
       </c>
@@ -9076,13 +9123,13 @@
         <v>41</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>41</v>
+        <v>451</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>41</v>
+        <v>452</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>41</v>
@@ -9100,7 +9147,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9121,13 +9168,13 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>454</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -9155,19 +9202,19 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9192,13 +9239,13 @@
         <v>41</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>41</v>
+        <v>460</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>41</v>
+        <v>461</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
@@ -9216,7 +9263,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9237,13 +9284,13 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>463</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -9271,7 +9318,7 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>465</v>
@@ -9279,11 +9326,9 @@
       <c r="L66" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9308,13 +9353,13 @@
         <v>41</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>41</v>
+        <v>468</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>41</v>
+        <v>469</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
@@ -9332,7 +9377,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9353,13 +9398,13 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>471</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -9384,23 +9429,19 @@
         <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>473</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9424,13 +9465,13 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>477</v>
+        <v>41</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>478</v>
+        <v>41</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
@@ -9448,7 +9489,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>479</v>
+        <v>138</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9469,7 +9510,7 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>480</v>
+        <v>139</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9480,18 +9521,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>41</v>
@@ -9500,23 +9541,21 @@
         <v>41</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>482</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>483</v>
+        <v>141</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>484</v>
+        <v>142</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9552,25 +9591,25 @@
         <v>41</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>487</v>
+        <v>144</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>41</v>
@@ -9585,7 +9624,7 @@
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>480</v>
+        <v>139</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9596,7 +9635,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9607,7 +9646,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>41</v>
@@ -9619,19 +9658,19 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>489</v>
+        <v>256</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>490</v>
+        <v>257</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>491</v>
+        <v>258</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>492</v>
+        <v>259</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>493</v>
+        <v>260</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>41</v>
@@ -9680,13 +9719,13 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>494</v>
+        <v>261</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>41</v>
@@ -9701,18 +9740,18 @@
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>495</v>
+        <v>262</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9732,23 +9771,19 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>497</v>
+        <v>135</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>498</v>
+        <v>136</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
       </c>
@@ -9796,7 +9831,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>502</v>
+        <v>138</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9817,7 +9852,7 @@
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>503</v>
+        <v>139</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9828,18 +9863,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -9848,21 +9883,21 @@
         <v>41</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>497</v>
+        <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>505</v>
+        <v>141</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
       </c>
@@ -9898,25 +9933,25 @@
         <v>41</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>508</v>
+        <v>144</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
@@ -9931,7 +9966,7 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>503</v>
+        <v>139</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9942,7 +9977,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9965,19 +10000,19 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>510</v>
+        <v>65</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>511</v>
+        <v>267</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>512</v>
+        <v>268</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>513</v>
+        <v>269</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>514</v>
+        <v>270</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -10026,38 +10061,1308 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL72" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AM72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN72" t="s" s="2">
+      <c r="O81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN72">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10067,7 +11372,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
